--- a/ADMINISTRATIVE/Schedule.xlsx
+++ b/ADMINISTRATIVE/Schedule.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{5CF0F817-482A-4C0B-8D6F-49CB45C936F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5AB884BA-20AF-49F6-A8D9-A4CC241A2C6F}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{5CF0F817-482A-4C0B-8D6F-49CB45C936F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{10A0BD76-5213-4665-9D6C-2BC6763BC426}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,9 +190,6 @@
     <t>Test line following</t>
   </si>
   <si>
-    <t xml:space="preserve">Test Box detection </t>
-  </si>
-  <si>
     <t>Test both codes combined</t>
   </si>
   <si>
@@ -200,6 +197,9 @@
   </si>
   <si>
     <t>TANK BOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Face detection </t>
   </si>
 </sst>
 </file>
@@ -739,6 +739,39 @@
     <xf numFmtId="164" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="11" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -762,39 +795,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="11" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -812,7 +812,39 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1130,450 +1162,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -1718,20 +1306,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="50"/>
-      <tableStyleElement type="headerRow" dxfId="49"/>
-      <tableStyleElement type="firstRowStripe" dxfId="48"/>
+      <tableStyleElement type="wholeTable" dxfId="30"/>
+      <tableStyleElement type="headerRow" dxfId="29"/>
+      <tableStyleElement type="firstRowStripe" dxfId="28"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="47"/>
-      <tableStyleElement type="headerRow" dxfId="46"/>
-      <tableStyleElement type="totalRow" dxfId="45"/>
-      <tableStyleElement type="firstColumn" dxfId="44"/>
-      <tableStyleElement type="lastColumn" dxfId="43"/>
-      <tableStyleElement type="firstRowStripe" dxfId="42"/>
-      <tableStyleElement type="secondRowStripe" dxfId="41"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="40"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="39"/>
+      <tableStyleElement type="wholeTable" dxfId="27"/>
+      <tableStyleElement type="headerRow" dxfId="26"/>
+      <tableStyleElement type="totalRow" dxfId="25"/>
+      <tableStyleElement type="firstColumn" dxfId="24"/>
+      <tableStyleElement type="lastColumn" dxfId="23"/>
+      <tableStyleElement type="firstRowStripe" dxfId="22"/>
+      <tableStyleElement type="secondRowStripe" dxfId="21"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="20"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="19"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1894,9 +1482,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{2C830160-8BD0-4CB5-8EB0-826238A5B2D6}" name="Assigned To" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{2C830160-8BD0-4CB5-8EB0-826238A5B2D6}" name="Assigned To" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="No. Days" dataCellStyle="Comma [0]"/>
@@ -2178,8 +1766,8 @@
   </sheetPr>
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2201,7 +1789,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="1"/>
@@ -2233,36 +1821,36 @@
         <v>18</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="18"/>
       <c r="F2" s="23"/>
       <c r="G2" s="21"/>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="N2" s="58" t="s">
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="N2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
       <c r="R2" s="20"/>
-      <c r="S2" s="59" t="s">
+      <c r="S2" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
       <c r="W2" s="20"/>
-      <c r="X2" s="51" t="s">
+      <c r="X2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="15" t="s">
@@ -2272,24 +1860,24 @@
         <v>31</v>
       </c>
       <c r="C3" s="19"/>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="55">
+      <c r="E3" s="64"/>
+      <c r="F3" s="66">
         <v>43934</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="67"/>
       <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="53"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="44">
         <v>0</v>
       </c>
@@ -2325,15 +1913,15 @@
       <c r="A5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="65">
         <v>4</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
       <c r="I5" s="48">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
         <v>43934</v>
@@ -2447,7 +2035,7 @@
       <c r="C7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="57" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="29" t="s">
@@ -2539,7 +2127,7 @@
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="67"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="31"/>
       <c r="F8" s="32"/>
       <c r="G8" s="33"/>
@@ -2566,33 +2154,33 @@
       <c r="A9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
     </row>
     <row r="10" spans="1:26" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="15"/>
@@ -2602,7 +2190,7 @@
       <c r="C10" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="69"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="31">
         <v>1</v>
       </c>
@@ -2613,76 +2201,76 @@
         <v>0</v>
       </c>
       <c r="H10" s="26"/>
-      <c r="I10" s="70" t="str">
-        <f ca="1">IF(AND($C10="Goal",I$5&gt;=$F10,I$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milestone",I$5&gt;=$F10,I$5&lt;=$F10+$G10-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J10" s="70" t="str">
-        <f ca="1">IF(AND($C10="Goal",J$5&gt;=$F10,J$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milestone",J$5&gt;=$F10,J$5&lt;=$F10+$G10-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K10" s="70" t="str">
-        <f ca="1">IF(AND($C10="Goal",K$5&gt;=$F10,K$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milestone",K$5&gt;=$F10,K$5&lt;=$F10+$G10-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="L10" s="70" t="str">
-        <f ca="1">IF(AND($C10="Goal",L$5&gt;=$F10,L$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milestone",L$5&gt;=$F10,L$5&lt;=$F10+$G10-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="M10" s="70" t="str">
-        <f ca="1">IF(AND($C10="Goal",M$5&gt;=$F10,M$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milestone",M$5&gt;=$F10,M$5&lt;=$F10+$G10-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="N10" s="70" t="str">
-        <f ca="1">IF(AND($C10="Goal",N$5&gt;=$F10,N$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milestone",N$5&gt;=$F10,N$5&lt;=$F10+$G10-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="O10" s="70" t="str">
-        <f ca="1">IF(AND($C10="Goal",O$5&gt;=$F10,O$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milestone",O$5&gt;=$F10,O$5&lt;=$F10+$G10-1),1,""))</f>
+      <c r="I10" s="61" t="str">
+        <f t="shared" ref="I10:R11" ca="1" si="2">IF(AND($C10="Goal",I$5&gt;=$F10,I$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milestone",I$5&gt;=$F10,I$5&lt;=$F10+$G10-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="J10" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="K10" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="L10" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="M10" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="N10" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="O10" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="P10" s="38" t="str">
-        <f ca="1">IF(AND($C10="Goal",P$5&gt;=$F10,P$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milestone",P$5&gt;=$F10,P$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="Q10" s="38" t="str">
-        <f ca="1">IF(AND($C10="Goal",Q$5&gt;=$F10,Q$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milestone",Q$5&gt;=$F10,Q$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="R10" s="38" t="str">
-        <f ca="1">IF(AND($C10="Goal",R$5&gt;=$F10,R$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milestone",R$5&gt;=$F10,R$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="S10" s="38" t="str">
-        <f ca="1">IF(AND($C10="Goal",S$5&gt;=$F10,S$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milestone",S$5&gt;=$F10,S$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ref="S10:Z11" ca="1" si="3">IF(AND($C10="Goal",S$5&gt;=$F10,S$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milestone",S$5&gt;=$F10,S$5&lt;=$F10+$G10-1),1,""))</f>
         <v/>
       </c>
       <c r="T10" s="38" t="str">
-        <f ca="1">IF(AND($C10="Goal",T$5&gt;=$F10,T$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milestone",T$5&gt;=$F10,T$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="U10" s="38" t="str">
-        <f ca="1">IF(AND($C10="Goal",U$5&gt;=$F10,U$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milestone",U$5&gt;=$F10,U$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="V10" s="38" t="str">
-        <f ca="1">IF(AND($C10="Goal",V$5&gt;=$F10,V$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milestone",V$5&gt;=$F10,V$5&lt;=$F10+$G10-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="W10" s="70" t="str">
-        <f ca="1">IF(AND($C10="Goal",W$5&gt;=$F10,W$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milestone",W$5&gt;=$F10,W$5&lt;=$F10+$G10-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="X10" s="70" t="str">
-        <f ca="1">IF(AND($C10="Goal",X$5&gt;=$F10,X$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milestone",X$5&gt;=$F10,X$5&lt;=$F10+$G10-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Y10" s="70" t="str">
-        <f ca="1">IF(AND($C10="Goal",Y$5&gt;=$F10,Y$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milestone",Y$5&gt;=$F10,Y$5&lt;=$F10+$G10-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Z10" s="70" t="str">
-        <f ca="1">IF(AND($C10="Goal",Z$5&gt;=$F10,Z$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milestone",Z$5&gt;=$F10,Z$5&lt;=$F10+$G10-1),1,""))</f>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="W10" s="61" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="X10" s="61" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="Y10" s="61" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="Z10" s="61" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
     </row>
@@ -2694,7 +2282,7 @@
       <c r="C11" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="69"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="31">
         <v>1</v>
       </c>
@@ -2705,76 +2293,76 @@
         <v>1</v>
       </c>
       <c r="H11" s="26"/>
-      <c r="I11" s="70">
-        <f ca="1">IF(AND($C11="Goal",I$5&gt;=$F11,I$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milestone",I$5&gt;=$F11,I$5&lt;=$F11+$G11-1),1,""))</f>
+      <c r="I11" s="61">
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="J11" s="70" t="str">
-        <f ca="1">IF(AND($C11="Goal",J$5&gt;=$F11,J$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milestone",J$5&gt;=$F11,J$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K11" s="70" t="str">
-        <f ca="1">IF(AND($C11="Goal",K$5&gt;=$F11,K$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milestone",K$5&gt;=$F11,K$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="L11" s="70" t="str">
-        <f ca="1">IF(AND($C11="Goal",L$5&gt;=$F11,L$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milestone",L$5&gt;=$F11,L$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="M11" s="70" t="str">
-        <f ca="1">IF(AND($C11="Goal",M$5&gt;=$F11,M$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milestone",M$5&gt;=$F11,M$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="N11" s="70" t="str">
-        <f ca="1">IF(AND($C11="Goal",N$5&gt;=$F11,N$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milestone",N$5&gt;=$F11,N$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="O11" s="70" t="str">
-        <f ca="1">IF(AND($C11="Goal",O$5&gt;=$F11,O$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milestone",O$5&gt;=$F11,O$5&lt;=$F11+$G11-1),1,""))</f>
+      <c r="J11" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="K11" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="L11" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="M11" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="N11" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="O11" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="P11" s="38" t="str">
-        <f ca="1">IF(AND($C11="Goal",P$5&gt;=$F11,P$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milestone",P$5&gt;=$F11,P$5&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="Q11" s="38" t="str">
-        <f ca="1">IF(AND($C11="Goal",Q$5&gt;=$F11,Q$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milestone",Q$5&gt;=$F11,Q$5&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="R11" s="38" t="str">
-        <f ca="1">IF(AND($C11="Goal",R$5&gt;=$F11,R$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milestone",R$5&gt;=$F11,R$5&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="S11" s="38" t="str">
-        <f ca="1">IF(AND($C11="Goal",S$5&gt;=$F11,S$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milestone",S$5&gt;=$F11,S$5&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="T11" s="38" t="str">
-        <f ca="1">IF(AND($C11="Goal",T$5&gt;=$F11,T$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milestone",T$5&gt;=$F11,T$5&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="U11" s="38" t="str">
-        <f ca="1">IF(AND($C11="Goal",U$5&gt;=$F11,U$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milestone",U$5&gt;=$F11,U$5&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="V11" s="38" t="str">
-        <f ca="1">IF(AND($C11="Goal",V$5&gt;=$F11,V$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milestone",V$5&gt;=$F11,V$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="W11" s="70" t="str">
-        <f ca="1">IF(AND($C11="Goal",W$5&gt;=$F11,W$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milestone",W$5&gt;=$F11,W$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="X11" s="70" t="str">
-        <f ca="1">IF(AND($C11="Goal",X$5&gt;=$F11,X$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milestone",X$5&gt;=$F11,X$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Y11" s="70" t="str">
-        <f ca="1">IF(AND($C11="Goal",Y$5&gt;=$F11,Y$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milestone",Y$5&gt;=$F11,Y$5&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Z11" s="70" t="str">
-        <f ca="1">IF(AND($C11="Goal",Z$5&gt;=$F11,Z$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milestone",Z$5&gt;=$F11,Z$5&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="W11" s="61" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="X11" s="61" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="Y11" s="61" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="Z11" s="61" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
     </row>
@@ -2786,7 +2374,7 @@
       <c r="C12" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="69"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="31">
         <v>1</v>
       </c>
@@ -2797,76 +2385,76 @@
         <v>1</v>
       </c>
       <c r="H12" s="26"/>
-      <c r="I12" s="70" t="str">
+      <c r="I12" s="61" t="str">
         <f ca="1">IF(AND($C12="Goal",I$5&gt;=$F12,I$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",I$5&gt;=$F12,I$5&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
-      <c r="J12" s="70" t="str">
-        <f ca="1">IF(AND($C12="Goal",I$5&gt;=$F12,I$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",I$5&gt;=$F12,I$5&lt;=$F12+$G12-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K12" s="70" t="str">
-        <f ca="1">IF(AND($C12="Goal",J$5&gt;=$F12,J$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",J$5&gt;=$F12,J$5&lt;=$F12+$G12-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="L12" s="70" t="str">
-        <f ca="1">IF(AND($C12="Goal",K$5&gt;=$F12,K$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",K$5&gt;=$F12,K$5&lt;=$F12+$G12-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="M12" s="70" t="str">
-        <f ca="1">IF(AND($C12="Goal",L$5&gt;=$F12,L$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",L$5&gt;=$F12,L$5&lt;=$F12+$G12-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="N12" s="70" t="str">
-        <f ca="1">IF(AND($C12="Goal",M$5&gt;=$F12,M$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",M$5&gt;=$F12,M$5&lt;=$F12+$G12-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="O12" s="70" t="str">
-        <f ca="1">IF(AND($C12="Goal",N$5&gt;=$F12,N$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",N$5&gt;=$F12,N$5&lt;=$F12+$G12-1),1,""))</f>
+      <c r="J12" s="61" t="str">
+        <f t="shared" ref="J12:Z12" ca="1" si="4">IF(AND($C12="Goal",I$5&gt;=$F12,I$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",I$5&gt;=$F12,I$5&lt;=$F12+$G12-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K12" s="61" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="L12" s="61" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="M12" s="61" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="N12" s="61" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="O12" s="61" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="P12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",O$5&gt;=$F12,O$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",O$5&gt;=$F12,O$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="Q12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",P$5&gt;=$F12,P$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",P$5&gt;=$F12,P$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="R12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",Q$5&gt;=$F12,Q$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",Q$5&gt;=$F12,Q$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="S12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",R$5&gt;=$F12,R$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",R$5&gt;=$F12,R$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="T12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",S$5&gt;=$F12,S$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",S$5&gt;=$F12,S$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="U12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",T$5&gt;=$F12,T$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",T$5&gt;=$F12,T$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="V12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",U$5&gt;=$F12,U$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",U$5&gt;=$F12,U$5&lt;=$F12+$G12-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="W12" s="70" t="str">
-        <f ca="1">IF(AND($C12="Goal",V$5&gt;=$F12,V$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",V$5&gt;=$F12,V$5&lt;=$F12+$G12-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="X12" s="70" t="str">
-        <f ca="1">IF(AND($C12="Goal",W$5&gt;=$F12,W$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",W$5&gt;=$F12,W$5&lt;=$F12+$G12-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Y12" s="70" t="str">
-        <f ca="1">IF(AND($C12="Goal",X$5&gt;=$F12,X$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",X$5&gt;=$F12,X$5&lt;=$F12+$G12-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Z12" s="70" t="str">
-        <f ca="1">IF(AND($C12="Goal",Y$5&gt;=$F12,Y$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",Y$5&gt;=$F12,Y$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="W12" s="61" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="X12" s="61" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Y12" s="61" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Z12" s="61" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
     </row>
@@ -2878,9 +2466,9 @@
       <c r="C13" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="69"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="31">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F13" s="32">
         <v>43934</v>
@@ -2889,76 +2477,76 @@
         <v>2</v>
       </c>
       <c r="H13" s="26"/>
-      <c r="I13" s="70" t="str">
+      <c r="I13" s="61" t="str">
         <f ca="1">IF(AND($C13="Goal",I$5&gt;=$F13,I$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",I$5&gt;=$F13,I$5&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
-      <c r="J13" s="70" t="str">
-        <f ca="1">IF(AND($C13="Goal",I$5&gt;=$F13,I$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",I$5&gt;=$F13,I$5&lt;=$F13+$G13-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K13" s="70" t="str">
-        <f ca="1">IF(AND($C13="Goal",J$5&gt;=$F13,J$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",J$5&gt;=$F13,J$5&lt;=$F13+$G13-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="L13" s="70" t="str">
-        <f ca="1">IF(AND($C13="Goal",K$5&gt;=$F13,K$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",K$5&gt;=$F13,K$5&lt;=$F13+$G13-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="M13" s="70" t="str">
-        <f ca="1">IF(AND($C13="Goal",L$5&gt;=$F13,L$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",L$5&gt;=$F13,L$5&lt;=$F13+$G13-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="N13" s="70" t="str">
-        <f ca="1">IF(AND($C13="Goal",M$5&gt;=$F13,M$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",M$5&gt;=$F13,M$5&lt;=$F13+$G13-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="O13" s="70" t="str">
-        <f ca="1">IF(AND($C13="Goal",N$5&gt;=$F13,N$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",N$5&gt;=$F13,N$5&lt;=$F13+$G13-1),1,""))</f>
+      <c r="J13" s="61" t="str">
+        <f t="shared" ref="J13:Z13" ca="1" si="5">IF(AND($C13="Goal",I$5&gt;=$F13,I$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",I$5&gt;=$F13,I$5&lt;=$F13+$G13-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K13" s="61" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="L13" s="61" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="M13" s="61" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="N13" s="61" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="O13" s="61" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="P13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",O$5&gt;=$F13,O$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",O$5&gt;=$F13,O$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",P$5&gt;=$F13,P$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",P$5&gt;=$F13,P$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="R13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",Q$5&gt;=$F13,Q$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",Q$5&gt;=$F13,Q$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="S13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",R$5&gt;=$F13,R$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",R$5&gt;=$F13,R$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="T13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",S$5&gt;=$F13,S$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",S$5&gt;=$F13,S$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="U13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",T$5&gt;=$F13,T$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",T$5&gt;=$F13,T$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="V13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",U$5&gt;=$F13,U$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",U$5&gt;=$F13,U$5&lt;=$F13+$G13-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="W13" s="70" t="str">
-        <f ca="1">IF(AND($C13="Goal",V$5&gt;=$F13,V$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",V$5&gt;=$F13,V$5&lt;=$F13+$G13-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="X13" s="70" t="str">
-        <f ca="1">IF(AND($C13="Goal",W$5&gt;=$F13,W$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",W$5&gt;=$F13,W$5&lt;=$F13+$G13-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Y13" s="70" t="str">
-        <f ca="1">IF(AND($C13="Goal",X$5&gt;=$F13,X$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",X$5&gt;=$F13,X$5&lt;=$F13+$G13-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Z13" s="70" t="str">
-        <f ca="1">IF(AND($C13="Goal",Y$5&gt;=$F13,Y$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",Y$5&gt;=$F13,Y$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="W13" s="61" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="X13" s="61" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="Y13" s="61" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="Z13" s="61" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
@@ -2970,9 +2558,9 @@
       <c r="C14" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="69"/>
+      <c r="D14" s="60"/>
       <c r="E14" s="31">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F14" s="32">
         <v>43935</v>
@@ -2981,108 +2569,108 @@
         <v>6</v>
       </c>
       <c r="H14" s="26"/>
-      <c r="I14" s="70" t="str">
+      <c r="I14" s="61" t="str">
         <f ca="1">IF(AND($C14="Goal",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
-      <c r="J14" s="70" t="str">
-        <f ca="1">IF(AND($C14="Goal",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K14" s="70" t="str">
-        <f ca="1">IF(AND($C14="Goal",J$5&gt;=$F14,J$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",J$5&gt;=$F14,J$5&lt;=$F14+$G14-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="L14" s="70" t="str">
-        <f ca="1">IF(AND($C14="Goal",K$5&gt;=$F14,K$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",K$5&gt;=$F14,K$5&lt;=$F14+$G14-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="M14" s="70" t="str">
-        <f ca="1">IF(AND($C14="Goal",L$5&gt;=$F14,L$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",L$5&gt;=$F14,L$5&lt;=$F14+$G14-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="N14" s="70" t="str">
-        <f ca="1">IF(AND($C14="Goal",M$5&gt;=$F14,M$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",M$5&gt;=$F14,M$5&lt;=$F14+$G14-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="O14" s="70" t="str">
-        <f ca="1">IF(AND($C14="Goal",N$5&gt;=$F14,N$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",N$5&gt;=$F14,N$5&lt;=$F14+$G14-1),1,""))</f>
+      <c r="J14" s="61" t="str">
+        <f t="shared" ref="J14:Z14" ca="1" si="6">IF(AND($C14="Goal",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K14" s="61" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="L14" s="61" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="M14" s="61" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="N14" s="61" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="O14" s="61" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="P14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",O$5&gt;=$F14,O$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",O$5&gt;=$F14,O$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="Q14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",P$5&gt;=$F14,P$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",P$5&gt;=$F14,P$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",Q$5&gt;=$F14,Q$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",Q$5&gt;=$F14,Q$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="S14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",R$5&gt;=$F14,R$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",R$5&gt;=$F14,R$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="T14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",S$5&gt;=$F14,S$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",S$5&gt;=$F14,S$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="U14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",T$5&gt;=$F14,T$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",T$5&gt;=$F14,T$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="V14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",U$5&gt;=$F14,U$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",U$5&gt;=$F14,U$5&lt;=$F14+$G14-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="W14" s="70" t="str">
-        <f ca="1">IF(AND($C14="Goal",V$5&gt;=$F14,V$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",V$5&gt;=$F14,V$5&lt;=$F14+$G14-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="X14" s="70" t="str">
-        <f ca="1">IF(AND($C14="Goal",W$5&gt;=$F14,W$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",W$5&gt;=$F14,W$5&lt;=$F14+$G14-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Y14" s="70" t="str">
-        <f ca="1">IF(AND($C14="Goal",X$5&gt;=$F14,X$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",X$5&gt;=$F14,X$5&lt;=$F14+$G14-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Z14" s="70" t="str">
-        <f ca="1">IF(AND($C14="Goal",Y$5&gt;=$F14,Y$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",Y$5&gt;=$F14,Y$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="W14" s="61" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="X14" s="61" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Y14" s="61" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Z14" s="61" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:26" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="15"/>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
     </row>
     <row r="16" spans="1:26" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="15"/>
@@ -3092,9 +2680,9 @@
       <c r="C16" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="69"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="32">
         <v>43940</v>
@@ -3103,76 +2691,76 @@
         <v>3</v>
       </c>
       <c r="H16" s="26"/>
-      <c r="I16" s="70" t="str">
-        <f ca="1">IF(AND($C16="Goal",I$5&gt;=$F16,I$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",I$5&gt;=$F16,I$5&lt;=$F16+$G16-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J16" s="70" t="str">
-        <f ca="1">IF(AND($C16="Goal",I$5&gt;=$F16,I$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",I$5&gt;=$F16,I$5&lt;=$F16+$G16-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K16" s="70" t="str">
-        <f ca="1">IF(AND($C16="Goal",J$5&gt;=$F16,J$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",J$5&gt;=$F16,J$5&lt;=$F16+$G16-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="L16" s="70" t="str">
-        <f ca="1">IF(AND($C16="Goal",K$5&gt;=$F16,K$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",K$5&gt;=$F16,K$5&lt;=$F16+$G16-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="M16" s="70" t="str">
-        <f ca="1">IF(AND($C16="Goal",L$5&gt;=$F16,L$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",L$5&gt;=$F16,L$5&lt;=$F16+$G16-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="N16" s="70" t="str">
-        <f ca="1">IF(AND($C16="Goal",M$5&gt;=$F16,M$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",M$5&gt;=$F16,M$5&lt;=$F16+$G16-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="O16" s="70" t="str">
-        <f ca="1">IF(AND($C16="Goal",N$5&gt;=$F16,N$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",N$5&gt;=$F16,N$5&lt;=$F16+$G16-1),1,""))</f>
+      <c r="I16" s="61" t="str">
+        <f t="shared" ref="I16:I21" ca="1" si="7">IF(AND($C16="Goal",I$5&gt;=$F16,I$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",I$5&gt;=$F16,I$5&lt;=$F16+$G16-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="J16" s="61" t="str">
+        <f t="shared" ref="J16:Z16" ca="1" si="8">IF(AND($C16="Goal",I$5&gt;=$F16,I$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",I$5&gt;=$F16,I$5&lt;=$F16+$G16-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K16" s="61" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="L16" s="61" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="M16" s="61" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="N16" s="61" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="O16" s="61" t="str">
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="P16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",O$5&gt;=$F16,O$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",O$5&gt;=$F16,O$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="Q16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",P$5&gt;=$F16,P$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",P$5&gt;=$F16,P$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="R16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",Q$5&gt;=$F16,Q$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",Q$5&gt;=$F16,Q$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="S16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",R$5&gt;=$F16,R$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",R$5&gt;=$F16,R$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="T16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="U16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",T$5&gt;=$F16,T$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",T$5&gt;=$F16,T$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="V16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",U$5&gt;=$F16,U$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",U$5&gt;=$F16,U$5&lt;=$F16+$G16-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="W16" s="70" t="str">
-        <f ca="1">IF(AND($C16="Goal",V$5&gt;=$F16,V$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",V$5&gt;=$F16,V$5&lt;=$F16+$G16-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="X16" s="70" t="str">
-        <f ca="1">IF(AND($C16="Goal",W$5&gt;=$F16,W$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",W$5&gt;=$F16,W$5&lt;=$F16+$G16-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Y16" s="70" t="str">
-        <f ca="1">IF(AND($C16="Goal",X$5&gt;=$F16,X$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",X$5&gt;=$F16,X$5&lt;=$F16+$G16-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Z16" s="70" t="str">
-        <f ca="1">IF(AND($C16="Goal",Y$5&gt;=$F16,Y$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",Y$5&gt;=$F16,Y$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="W16" s="61" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="X16" s="61" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="Y16" s="61" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="Z16" s="61" t="str">
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
@@ -3184,9 +2772,9 @@
       <c r="C17" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="69"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="32">
         <f>F16+2</f>
@@ -3196,76 +2784,76 @@
         <v>3</v>
       </c>
       <c r="H17" s="26"/>
-      <c r="I17" s="70" t="str">
-        <f ca="1">IF(AND($C17="Goal",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J17" s="70" t="str">
-        <f ca="1">IF(AND($C17="Goal",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K17" s="70" t="str">
-        <f ca="1">IF(AND($C17="Goal",J$5&gt;=$F17,J$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",J$5&gt;=$F17,J$5&lt;=$F17+$G17-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="L17" s="70" t="str">
-        <f ca="1">IF(AND($C17="Goal",K$5&gt;=$F17,K$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",K$5&gt;=$F17,K$5&lt;=$F17+$G17-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="M17" s="70" t="str">
-        <f ca="1">IF(AND($C17="Goal",L$5&gt;=$F17,L$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",L$5&gt;=$F17,L$5&lt;=$F17+$G17-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="N17" s="70" t="str">
-        <f ca="1">IF(AND($C17="Goal",M$5&gt;=$F17,M$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",M$5&gt;=$F17,M$5&lt;=$F17+$G17-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="O17" s="70" t="str">
-        <f ca="1">IF(AND($C17="Goal",N$5&gt;=$F17,N$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",N$5&gt;=$F17,N$5&lt;=$F17+$G17-1),1,""))</f>
+      <c r="I17" s="61" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="J17" s="61" t="str">
+        <f t="shared" ref="J17:Z17" ca="1" si="9">IF(AND($C17="Goal",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K17" s="61" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="L17" s="61" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="M17" s="61" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="N17" s="61" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="O17" s="61" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",O$5&gt;=$F17,O$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",O$5&gt;=$F17,O$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Q17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",P$5&gt;=$F17,P$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",P$5&gt;=$F17,P$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="R17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",Q$5&gt;=$F17,Q$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",Q$5&gt;=$F17,Q$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",R$5&gt;=$F17,R$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",R$5&gt;=$F17,R$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="T17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",S$5&gt;=$F17,S$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",S$5&gt;=$F17,S$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="U17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",T$5&gt;=$F17,T$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",T$5&gt;=$F17,T$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="V17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",U$5&gt;=$F17,U$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",U$5&gt;=$F17,U$5&lt;=$F17+$G17-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="W17" s="70" t="str">
-        <f ca="1">IF(AND($C17="Goal",V$5&gt;=$F17,V$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",V$5&gt;=$F17,V$5&lt;=$F17+$G17-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="X17" s="70" t="str">
-        <f ca="1">IF(AND($C17="Goal",W$5&gt;=$F17,W$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",W$5&gt;=$F17,W$5&lt;=$F17+$G17-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Y17" s="70" t="str">
-        <f ca="1">IF(AND($C17="Goal",X$5&gt;=$F17,X$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",X$5&gt;=$F17,X$5&lt;=$F17+$G17-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Z17" s="70" t="str">
-        <f ca="1">IF(AND($C17="Goal",Y$5&gt;=$F17,Y$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",Y$5&gt;=$F17,Y$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="W17" s="61" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="X17" s="61" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="Y17" s="61" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="Z17" s="61" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
     </row>
@@ -3277,9 +2865,9 @@
       <c r="C18" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="69"/>
+      <c r="D18" s="60"/>
       <c r="E18" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="32">
         <v>43944</v>
@@ -3288,76 +2876,76 @@
         <v>3</v>
       </c>
       <c r="H18" s="26"/>
-      <c r="I18" s="70" t="str">
-        <f ca="1">IF(AND($C18="Goal",I$5&gt;=$F18,I$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",I$5&gt;=$F18,I$5&lt;=$F18+$G18-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J18" s="70" t="str">
-        <f ca="1">IF(AND($C18="Goal",I$5&gt;=$F18,I$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",I$5&gt;=$F18,I$5&lt;=$F18+$G18-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K18" s="70" t="str">
-        <f ca="1">IF(AND($C18="Goal",J$5&gt;=$F18,J$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",J$5&gt;=$F18,J$5&lt;=$F18+$G18-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="L18" s="70" t="str">
-        <f ca="1">IF(AND($C18="Goal",K$5&gt;=$F18,K$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",K$5&gt;=$F18,K$5&lt;=$F18+$G18-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="M18" s="70" t="str">
-        <f ca="1">IF(AND($C18="Goal",L$5&gt;=$F18,L$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",L$5&gt;=$F18,L$5&lt;=$F18+$G18-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="N18" s="70" t="str">
-        <f ca="1">IF(AND($C18="Goal",M$5&gt;=$F18,M$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",M$5&gt;=$F18,M$5&lt;=$F18+$G18-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="O18" s="70" t="str">
-        <f ca="1">IF(AND($C18="Goal",N$5&gt;=$F18,N$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",N$5&gt;=$F18,N$5&lt;=$F18+$G18-1),1,""))</f>
+      <c r="I18" s="61" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="J18" s="61" t="str">
+        <f t="shared" ref="J18:Z18" ca="1" si="10">IF(AND($C18="Goal",I$5&gt;=$F18,I$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",I$5&gt;=$F18,I$5&lt;=$F18+$G18-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K18" s="61" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="L18" s="61" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="M18" s="61" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="N18" s="61" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="O18" s="61" t="str">
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="P18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",O$5&gt;=$F18,O$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",O$5&gt;=$F18,O$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="Q18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",P$5&gt;=$F18,P$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",P$5&gt;=$F18,P$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="R18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",Q$5&gt;=$F18,Q$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",Q$5&gt;=$F18,Q$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="S18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",R$5&gt;=$F18,R$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",R$5&gt;=$F18,R$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="T18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",S$5&gt;=$F18,S$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",S$5&gt;=$F18,S$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="U18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",T$5&gt;=$F18,T$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",T$5&gt;=$F18,T$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="V18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",U$5&gt;=$F18,U$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",U$5&gt;=$F18,U$5&lt;=$F18+$G18-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="W18" s="70" t="str">
-        <f ca="1">IF(AND($C18="Goal",V$5&gt;=$F18,V$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",V$5&gt;=$F18,V$5&lt;=$F18+$G18-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="X18" s="70" t="str">
-        <f ca="1">IF(AND($C18="Goal",W$5&gt;=$F18,W$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",W$5&gt;=$F18,W$5&lt;=$F18+$G18-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Y18" s="70" t="str">
-        <f ca="1">IF(AND($C18="Goal",X$5&gt;=$F18,X$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",X$5&gt;=$F18,X$5&lt;=$F18+$G18-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Z18" s="70" t="str">
-        <f ca="1">IF(AND($C18="Goal",Y$5&gt;=$F18,Y$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",Y$5&gt;=$F18,Y$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="W18" s="61" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="X18" s="61" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Y18" s="61" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Z18" s="61" t="str">
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
     </row>
@@ -3369,9 +2957,9 @@
       <c r="C19" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="69"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="32">
         <f>F18+2</f>
@@ -3381,90 +2969,90 @@
         <v>2</v>
       </c>
       <c r="H19" s="26"/>
-      <c r="I19" s="70" t="str">
-        <f ca="1">IF(AND($C19="Goal",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J19" s="70" t="str">
-        <f ca="1">IF(AND($C19="Goal",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K19" s="70" t="str">
-        <f ca="1">IF(AND($C19="Goal",J$5&gt;=$F19,J$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",J$5&gt;=$F19,J$5&lt;=$F19+$G19-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="L19" s="70" t="str">
-        <f ca="1">IF(AND($C19="Goal",K$5&gt;=$F19,K$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",K$5&gt;=$F19,K$5&lt;=$F19+$G19-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="M19" s="70" t="str">
-        <f ca="1">IF(AND($C19="Goal",L$5&gt;=$F19,L$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",L$5&gt;=$F19,L$5&lt;=$F19+$G19-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="N19" s="70" t="str">
-        <f ca="1">IF(AND($C19="Goal",M$5&gt;=$F19,M$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",M$5&gt;=$F19,M$5&lt;=$F19+$G19-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="O19" s="70" t="str">
-        <f ca="1">IF(AND($C19="Goal",N$5&gt;=$F19,N$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",N$5&gt;=$F19,N$5&lt;=$F19+$G19-1),1,""))</f>
+      <c r="I19" s="61" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="J19" s="61" t="str">
+        <f t="shared" ref="J19:Z19" ca="1" si="11">IF(AND($C19="Goal",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K19" s="61" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="L19" s="61" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="M19" s="61" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="N19" s="61" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="O19" s="61" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="P19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",O$5&gt;=$F19,O$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",O$5&gt;=$F19,O$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Q19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",P$5&gt;=$F19,P$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",P$5&gt;=$F19,P$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="R19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",Q$5&gt;=$F19,Q$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",Q$5&gt;=$F19,Q$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="S19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",R$5&gt;=$F19,R$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",R$5&gt;=$F19,R$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="T19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",S$5&gt;=$F19,S$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",S$5&gt;=$F19,S$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="U19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",T$5&gt;=$F19,T$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",T$5&gt;=$F19,T$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="V19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",U$5&gt;=$F19,U$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",U$5&gt;=$F19,U$5&lt;=$F19+$G19-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="W19" s="70" t="str">
-        <f ca="1">IF(AND($C19="Goal",V$5&gt;=$F19,V$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",V$5&gt;=$F19,V$5&lt;=$F19+$G19-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="X19" s="70" t="str">
-        <f ca="1">IF(AND($C19="Goal",W$5&gt;=$F19,W$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",W$5&gt;=$F19,W$5&lt;=$F19+$G19-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Y19" s="70" t="str">
-        <f ca="1">IF(AND($C19="Goal",X$5&gt;=$F19,X$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",X$5&gt;=$F19,X$5&lt;=$F19+$G19-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Z19" s="70" t="str">
-        <f ca="1">IF(AND($C19="Goal",Y$5&gt;=$F19,Y$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",Y$5&gt;=$F19,Y$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="W19" s="61" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="X19" s="61" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="Y19" s="61" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="Z19" s="61" t="str">
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:26" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="14"/>
       <c r="B20" s="41" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="69"/>
+      <c r="D20" s="60"/>
       <c r="E20" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="32">
         <f>F19+1</f>
@@ -3474,76 +3062,76 @@
         <v>2</v>
       </c>
       <c r="H20" s="26"/>
-      <c r="I20" s="70" t="str">
-        <f ca="1">IF(AND($C20="Goal",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J20" s="70" t="str">
-        <f ca="1">IF(AND($C20="Goal",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K20" s="70" t="str">
-        <f ca="1">IF(AND($C20="Goal",J$5&gt;=$F20,J$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",J$5&gt;=$F20,J$5&lt;=$F20+$G20-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="L20" s="70" t="str">
-        <f ca="1">IF(AND($C20="Goal",K$5&gt;=$F20,K$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",K$5&gt;=$F20,K$5&lt;=$F20+$G20-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="M20" s="70" t="str">
-        <f ca="1">IF(AND($C20="Goal",L$5&gt;=$F20,L$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",L$5&gt;=$F20,L$5&lt;=$F20+$G20-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="N20" s="70" t="str">
-        <f ca="1">IF(AND($C20="Goal",M$5&gt;=$F20,M$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",M$5&gt;=$F20,M$5&lt;=$F20+$G20-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="O20" s="70" t="str">
-        <f ca="1">IF(AND($C20="Goal",N$5&gt;=$F20,N$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",N$5&gt;=$F20,N$5&lt;=$F20+$G20-1),1,""))</f>
+      <c r="I20" s="61" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="J20" s="61" t="str">
+        <f t="shared" ref="J20:Z20" ca="1" si="12">IF(AND($C20="Goal",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K20" s="61" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="L20" s="61" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="M20" s="61" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="N20" s="61" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="O20" s="61" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="P20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",O$5&gt;=$F20,O$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",O$5&gt;=$F20,O$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Q20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",P$5&gt;=$F20,P$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",P$5&gt;=$F20,P$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="R20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",Q$5&gt;=$F20,Q$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",Q$5&gt;=$F20,Q$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="S20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",R$5&gt;=$F20,R$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",R$5&gt;=$F20,R$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="T20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",S$5&gt;=$F20,S$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",S$5&gt;=$F20,S$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="U20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",T$5&gt;=$F20,T$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",T$5&gt;=$F20,T$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="V20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",U$5&gt;=$F20,U$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",U$5&gt;=$F20,U$5&lt;=$F20+$G20-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="W20" s="70" t="str">
-        <f ca="1">IF(AND($C20="Goal",V$5&gt;=$F20,V$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",V$5&gt;=$F20,V$5&lt;=$F20+$G20-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="X20" s="70" t="str">
-        <f ca="1">IF(AND($C20="Goal",W$5&gt;=$F20,W$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",W$5&gt;=$F20,W$5&lt;=$F20+$G20-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Y20" s="70" t="str">
-        <f ca="1">IF(AND($C20="Goal",X$5&gt;=$F20,X$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",X$5&gt;=$F20,X$5&lt;=$F20+$G20-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Z20" s="70" t="str">
-        <f ca="1">IF(AND($C20="Goal",Y$5&gt;=$F20,Y$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",Y$5&gt;=$F20,Y$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="W20" s="61" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="X20" s="61" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="Y20" s="61" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="Z20" s="61" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
@@ -3552,14 +3140,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="69"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="32">
         <v>43949</v>
@@ -3568,76 +3156,76 @@
         <v>2</v>
       </c>
       <c r="H21" s="26"/>
-      <c r="I21" s="70" t="str">
-        <f ca="1">IF(AND($C21="Goal",I$5&gt;=$F21,I$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",I$5&gt;=$F21,I$5&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J21" s="70" t="str">
-        <f ca="1">IF(AND($C21="Goal",I$5&gt;=$F21,I$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",I$5&gt;=$F21,I$5&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K21" s="70" t="str">
-        <f ca="1">IF(AND($C21="Goal",J$5&gt;=$F21,J$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",J$5&gt;=$F21,J$5&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="L21" s="70" t="str">
-        <f ca="1">IF(AND($C21="Goal",K$5&gt;=$F21,K$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",K$5&gt;=$F21,K$5&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="M21" s="70" t="str">
-        <f ca="1">IF(AND($C21="Goal",L$5&gt;=$F21,L$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",L$5&gt;=$F21,L$5&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="N21" s="70" t="str">
-        <f ca="1">IF(AND($C21="Goal",M$5&gt;=$F21,M$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",M$5&gt;=$F21,M$5&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="O21" s="70" t="str">
-        <f ca="1">IF(AND($C21="Goal",N$5&gt;=$F21,N$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",N$5&gt;=$F21,N$5&lt;=$F21+$G21-1),1,""))</f>
+      <c r="I21" s="61" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="J21" s="61" t="str">
+        <f t="shared" ref="J21:Z21" ca="1" si="13">IF(AND($C21="Goal",I$5&gt;=$F21,I$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",I$5&gt;=$F21,I$5&lt;=$F21+$G21-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K21" s="61" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="L21" s="61" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="M21" s="61" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="N21" s="61" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="O21" s="61" t="str">
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="P21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",O$5&gt;=$F21,O$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",O$5&gt;=$F21,O$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Q21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",P$5&gt;=$F21,P$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",P$5&gt;=$F21,P$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="R21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",Q$5&gt;=$F21,Q$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",Q$5&gt;=$F21,Q$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="S21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",R$5&gt;=$F21,R$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",R$5&gt;=$F21,R$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="T21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",S$5&gt;=$F21,S$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",S$5&gt;=$F21,S$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="U21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",T$5&gt;=$F21,T$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",T$5&gt;=$F21,T$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="V21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",U$5&gt;=$F21,U$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",U$5&gt;=$F21,U$5&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="W21" s="70" t="str">
-        <f ca="1">IF(AND($C21="Goal",V$5&gt;=$F21,V$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",V$5&gt;=$F21,V$5&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="X21" s="70" t="str">
-        <f ca="1">IF(AND($C21="Goal",W$5&gt;=$F21,W$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",W$5&gt;=$F21,W$5&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Y21" s="70" t="str">
-        <f ca="1">IF(AND($C21="Goal",X$5&gt;=$F21,X$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",X$5&gt;=$F21,X$5&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Z21" s="70" t="str">
-        <f ca="1">IF(AND($C21="Goal",Y$5&gt;=$F21,Y$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",Y$5&gt;=$F21,Y$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="W21" s="61" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="X21" s="61" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="Y21" s="61" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="Z21" s="61" t="str">
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
     </row>
@@ -3707,66 +3295,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:Y6 I8:Y8 I7:Z7 I16:Y22 I10:Y14">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:Z4">
-    <cfRule type="expression" dxfId="14" priority="7">
+    <cfRule type="expression" dxfId="17" priority="7">
       <formula>I$5&lt;=EOMONTH($I$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:Z4">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>AND(J$5&lt;=EOMONTH($I$5,2),J$5&gt;EOMONTH($I$5,0),J$5&gt;EOMONTH($I$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:Z4">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>AND(I$5&lt;=EOMONTH($I$5,1),I$5&gt;EOMONTH($I$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:Z22">
-    <cfRule type="expression" dxfId="11" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="71" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="72" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="73" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="74" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="75" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z12:Z14 Z5:Z6 Z16:Z22">
-    <cfRule type="expression" dxfId="6" priority="87">
+    <cfRule type="expression" dxfId="9" priority="87">
       <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8 Z16:Z21 Z10:Z14">
-    <cfRule type="expression" dxfId="5" priority="101">
+    <cfRule type="expression" dxfId="8" priority="101">
       <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:Z8 I16:Z21 I10:Z14">
-    <cfRule type="expression" dxfId="4" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="115" stopIfTrue="1">
       <formula>AND($C8="Low Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="116" stopIfTrue="1">
       <formula>AND($C8="High Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="117" stopIfTrue="1">
       <formula>AND($C8="On Track",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="118" stopIfTrue="1">
       <formula>AND($C8="Med Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="119" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
   </conditionalFormatting>
